--- a/data/trans_dic/P56$privada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 19,13</t>
+          <t>1,94; 17,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 18,79</t>
+          <t>4,4; 18,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 19,51</t>
+          <t>4,49; 19,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 24,2</t>
+          <t>9,44; 22,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 19,43</t>
+          <t>4,76; 17,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 18,37</t>
+          <t>7,94; 19,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 21,65</t>
+          <t>8,01; 22,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,73; 22,21</t>
+          <t>14,33; 22,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 15,52</t>
+          <t>5,21; 15,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,87</t>
+          <t>7,66; 16,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 19,25</t>
+          <t>8,62; 19,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 21,44</t>
+          <t>14,41; 21,27</t>
         </is>
       </c>
     </row>
@@ -874,52 +875,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,18; 66,06</t>
+          <t>13,75; 66,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 26,14</t>
+          <t>5,95; 26,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,58</t>
+          <t>0,0; 68,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 62,82</t>
+          <t>8,17; 56,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 44,7</t>
+          <t>4,36; 43,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 28,59</t>
+          <t>11,17; 28,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,97</t>
+          <t>0,0; 44,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 35,41</t>
+          <t>4,6; 38,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 42,82</t>
+          <t>11,21; 44,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,79; 23,72</t>
+          <t>11,0; 23,82</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,68</t>
+          <t>0,0; 54,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,0</t>
+          <t>0,0; 41,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1050,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 100,0</t>
+          <t>18,23; 100,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,47</t>
+          <t>0,0; 72,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 29,23</t>
+          <t>2,82; 29,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 16,56</t>
+          <t>1,78; 16,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 18,54</t>
+          <t>4,0; 17,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 22,63</t>
+          <t>7,35; 22,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,67; 20,8</t>
+          <t>10,49; 21,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 20,34</t>
+          <t>5,86; 19,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 20,06</t>
+          <t>9,41; 19,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 23,43</t>
+          <t>9,66; 22,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,66</t>
+          <t>14,81; 22,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 16,22</t>
+          <t>5,77; 15,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 18,02</t>
+          <t>9,13; 17,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,5; 20,87</t>
+          <t>10,24; 20,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,66; 20,45</t>
+          <t>14,46; 20,07</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, tiene ayuda privada cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6444</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5569</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10903</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8477</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23403</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20681</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36363</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11938</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29847</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26250</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47266</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>857; 7910</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3006; 12938</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2543; 11187</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6410; 15538</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3972; 14411</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14763; 35560</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11430; 32019</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28749; 44712</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6645; 19251</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19480; 41954</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17197; 39317</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38676; 57109</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3109</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4512</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7923</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3109</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8689</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11601</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1268</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1538; 7408</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1613; 7238</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4668</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>961; 6596</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1107; 10982</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4701; 11825</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4853</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>962; 8066</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4099; 16121</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7608; 16481</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1376</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3194</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1376</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1490</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>225; 986</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3516</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3361</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4423</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3671</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2668</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3361</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>986; 5409</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5734</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>365; 3769</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7429</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9746</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15198</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10799</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28721</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26568</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45158</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14260</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>36150</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>36314</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60357</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>858; 7949</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3142; 13566</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5299; 16468</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10648; 21900</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5480; 18381</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19016; 40115</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16591; 38885</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36895; 55297</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8182; 22663</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25624; 49764</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>24973; 48944</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50685; 70366</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>